--- a/target/classes/com/apium/poc/utilities/testdata/Test_Data_new.xlsx
+++ b/target/classes/com/apium/poc/utilities/testdata/Test_Data_new.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New_Registration" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -47,13 +47,17 @@
   </si>
   <si>
     <t>Ruby</t>
+  </si>
+  <si>
+    <t>Used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +73,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,9 +109,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,31 +421,34 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.06806640625" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -449,11 +471,15 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>